--- a/wxdgaming.game.login/src/main/cfg/激活码.xlsx
+++ b/wxdgaming.game.login/src/main/cfg/激活码.xlsx
@@ -86,7 +86,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>List&lt;wxdgaming.game.bean.goods.ItemCfg&gt;</t>
+    <t>List&lt;wxdgaming.game.server.bean.goods.ItemCfg&gt;</t>
   </si>
   <si>
     <t>主键id</t>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/wxdgaming.game.login/src/main/cfg/激活码.xlsx
+++ b/wxdgaming.game.login/src/main/cfg/激活码.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>任务集合</t>
   </si>
@@ -77,6 +77,9 @@
     <t>comment</t>
   </si>
   <si>
+    <t>validation</t>
+  </si>
+  <si>
     <t>rewards</t>
   </si>
   <si>
@@ -98,10 +101,16 @@
     <t>备注说明</t>
   </si>
   <si>
+    <t>条件</t>
+  </si>
+  <si>
     <t>奖励</t>
   </si>
   <si>
     <t>vip666</t>
+  </si>
+  <si>
+    <t>ForeverCount|lt|1</t>
   </si>
   <si>
     <t>[{"cfgId":100001,"num":2},{"cfgId":10003,"num":2},{"cfgId":1,"num":2}]</t>
@@ -1076,30 +1085,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="41.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="4" width="41.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1109,11 +1119,12 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1126,59 +1137,74 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
